--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\Unity\OfficialDemo\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\Offitial_Demo\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AAD45D-FA20-4EE8-A3D3-E40F15899C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CBCFE7-98A6-4A82-B6B4-9AAF8A0F2A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="1650" windowWidth="21600" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="3660" windowWidth="27375" windowHeight="13965" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,6 +555,24 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>B6*100+C6</f>
+        <v>201</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,24 +658,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f>B4*100+C4</f>
-        <v>201</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\Offitial_Demo\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\Unity\OfficialDemo\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CBCFE7-98A6-4A82-B6B4-9AAF8A0F2A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51AE2AB-CAEA-4409-B893-5D3A9A17C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3660" windowWidth="27375" windowHeight="13965" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1650" windowWidth="21600" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -82,10 +81,6 @@
   </si>
   <si>
     <t>巡逻</t>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;int&gt;</t>
@@ -445,7 +440,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -571,91 +566,6 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
